--- a/Configurations/TestExecution.xlsx
+++ b/Configurations/TestExecution.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\selenium_practice\Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A28199-502E-488B-8899-8298FD8490E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAADFCE3-162D-4BB2-A477-B8011148ED29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConfig" sheetId="1" r:id="rId1"/>
-    <sheet name="TestSet" sheetId="2" r:id="rId2"/>
+    <sheet name="TestCases" sheetId="2" r:id="rId2"/>
+    <sheet name="DemoQA" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>BrowserType</t>
   </si>
@@ -38,16 +39,51 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>RunFlag</t>
+  </si>
+  <si>
+    <t>TestSetName</t>
+  </si>
+  <si>
+    <t>SheetName</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>DemoQA</t>
+  </si>
+  <si>
+    <t>TestCaseName</t>
+  </si>
+  <si>
+    <t>TestScriptPath</t>
+  </si>
+  <si>
+    <t>Navigate_to_text_box</t>
+  </si>
+  <si>
+    <t>\\TestScripts\\DemoQA.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -70,13 +106,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -390,14 +429,85 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE30FD39-0CBC-481F-8480-4CF36DC0BBDE}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06201837-F1DF-4741-BEDA-40C77E7861E0}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{0F28D93D-CC4A-4350-9D25-C2E66A175D71}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Configurations/TestExecution.xlsx
+++ b/Configurations/TestExecution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\selenium_practice\Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAADFCE3-162D-4BB2-A477-B8011148ED29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA565F7-82FE-431F-9DB2-4CE7342F60EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>BrowserType</t>
   </si>
@@ -66,6 +66,21 @@
   </si>
   <si>
     <t>\\TestScripts\\DemoQA.xlsx</t>
+  </si>
+  <si>
+    <t>Navigate_to_text_box_edit</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Navigate_to_text_box_1</t>
+  </si>
+  <si>
+    <t>Navigate_to_text_box_2</t>
+  </si>
+  <si>
+    <t>Navigate_to_text_box_3</t>
   </si>
 </sst>
 </file>
@@ -470,15 +485,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06201837-F1DF-4741-BEDA-40C77E7861E0}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.6640625" customWidth="1"/>
     <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -504,9 +519,57 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{0F28D93D-CC4A-4350-9D25-C2E66A175D71}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{CA49F2D6-9559-4D85-81A0-5B0AFC30FA2E}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{A67FECE7-9032-40F9-9393-365322841E6B}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{E5C6CD48-F1C7-49B7-870E-E8D929443BC5}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{94316D76-60E3-4A20-AEBC-919AD233074E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
